--- a/数据整理/stocks/A股/深证主板/000537-广宇发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/000537-广宇发展.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -849,7 +850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,17 +861,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -880,13 +901,1775 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7058</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3415</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8910</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7374</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011371</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7064</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5981</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5246</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5242</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3879</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3808</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3713</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3531</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3496</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3333</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3248</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3117</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001143</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商量化进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2887</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2875</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2510</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>630005</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商动态阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>70.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1569</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000609</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001106</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华商健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010293</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商量化优质精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002421</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新华增强债券A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000279</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商红利优选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>67.54</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>630016</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华商价值共享</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011372</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002422</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>新华增强债券C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>3.94</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000537-广宇发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/000537-广宇发展.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2616,7 +2617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2627,17 +2628,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2647,14 +2668,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.82</v>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8151</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2663,13 +2706,1404 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6140</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5376</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3200</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2923</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2789</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2490</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2434</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1931</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1931</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1924</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001106</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013431</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>53.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>630016</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商价值共享</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013432</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>53.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>45</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>3.94</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000537-广宇发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/000537-广宇发展.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4034,7 +4035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4045,17 +4046,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4065,14 +4086,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.79</v>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3968</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4081,14 +4124,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>45</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.82</v>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>34.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3912</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4097,13 +4162,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3564</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>3.94</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000537-广宇发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/000537-广宇发展.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,395 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>166005</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>34.90</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.1010</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001810</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0682</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004232</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3750</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501029</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.23</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.44</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2363</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0835</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>512040</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国中证价值ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.98</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0554</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0199</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>515590</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源中证500等权重ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501072</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.94</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -852,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009864</t>
+          <t>001118</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商景气优选股票A</t>
+          <t>华宝事件驱动混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>79.35</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.7058</t>
+          <t>0.3968</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -941,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008075</t>
+          <t>006972</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商核心优选股票A</t>
+          <t>金鹰民安回报一年定期开放混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>39.11</t>
+          <t>32.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>34.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3415</t>
+          <t>0.3912</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -979,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002669</t>
+          <t>000612</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商万众创新灵活配置混合</t>
+          <t>华宝生态中国混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27.33</t>
+          <t>7.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.36</t>
+          <t>92.46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8910</t>
+          <t>0.3564</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1017,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011450</t>
+          <t>011694</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商企业优选混合型证券投资基金A</t>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.56</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>95.49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7374</t>
+          <t>0.0922</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1055,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011371</t>
+          <t>004265</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华商远见价值混合型证券投资基金A</t>
+          <t>金鹰民丰回报定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21.67</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.83</t>
+          <t>24.62</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7064</t>
+          <t>0.0373</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1093,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003378</t>
+          <t>007735</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰康策略优选灵活配置混合</t>
+          <t>金鹰民安回报一年定期开放混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>23.64</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>34.20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5981</t>
+          <t>0.0364</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1131,1480 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010166</t>
+          <t>011695</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商兴和优选1年持有期混合</t>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>15.52</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.61</t>
+          <t>95.49</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5246</t>
+          <t>0.0303</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001445</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华安国企改革主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>17.77</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>82.82</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5242</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>630001</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华商领先企业混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11.72</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>87.73</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3879</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>501029</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>10.85</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3808</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>217005</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商先锋混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>10.92</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>74.59</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3713</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000541</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华商创新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>10.83</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>87.21</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3531</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010874</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>泰康品质生活混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>13.50</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3496</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>290004</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>泰信优质生活混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.74</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.3333</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004895</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华商鑫安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>9.61</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>86.96</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.3248</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009865</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商景气优选股票C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>9.14</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.50</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.3117</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001143</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华商量化进取灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>7.44</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>85.74</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2887</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>011369</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华商均衡成长混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>8.82</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>88.03</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.2875</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006364</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>招商丰韵混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.2510</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001569</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>泰信国策驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>88.80</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.2056</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>000800</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华商未来主题混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>74.36</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1932</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>630005</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华商动态阿尔法混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>70.47</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1627</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>010875</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>泰康品质生活混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1575</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>001457</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华商新常态灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1569</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>000609</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华商新量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>85.98</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1340</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>010008</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中融成长优选混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>92.65</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1298</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001106</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华商健康生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>84.24</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1195</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>010293</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>华商量化优质精选混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>85.40</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1169</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>160628</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>鹏华中证800地产指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0978</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002421</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>新华增强债券A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>9.32</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>22.12</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0960</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>001959</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>华商乐享互联灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>85.65</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0943</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>000279</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>华商红利优选混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>67.54</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0907</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>630016</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>华商价值共享</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>84.08</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0612</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>004671</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>中融核心成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0606</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>006365</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>招商丰韵混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0484</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>011370</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>华商均衡成长混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>88.03</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0411</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>002289</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>华商改革创新股票</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0409</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>001537</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>中加改革红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0329</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>010403</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>华商景气优选混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>85.18</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0301</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>010009</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>中融成长优选混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>92.65</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0251</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>011451</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>招商企业优选混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0233</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>011372</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>华商远见价值混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>87.83</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0166</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>008076</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>招商核心优选股票C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>94.16</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>162907</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>泰信中证锐联基本面400指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>002422</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>新华增强债券C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>22.12</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4035,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4086,36 +2344,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001118</t>
+          <t>009864</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝事件驱动混合</t>
+          <t>招商景气优选股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>79.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>93.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3968</t>
+          <t>2.7058</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4124,36 +2382,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006972</t>
+          <t>008075</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰民安回报一年定期开放混合A</t>
+          <t>招商核心优选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>32.33</t>
+          <t>39.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>34.20</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3912</t>
+          <t>1.3415</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4162,36 +2420,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000612</t>
+          <t>002669</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝生态中国混合</t>
+          <t>华商万众创新灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>27.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.46</t>
+          <t>85.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3564</t>
+          <t>0.8910</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4200,36 +2458,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011694</t>
+          <t>011450</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+          <t>招商企业优选混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>21.56</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.49</t>
+          <t>92.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0922</t>
+          <t>0.7374</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -4238,36 +2496,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004265</t>
+          <t>011371</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金鹰民丰回报定期开放混合</t>
+          <t>华商远见价值混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>21.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24.62</t>
+          <t>87.83</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0373</t>
+          <t>0.7064</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -4276,36 +2534,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007735</t>
+          <t>003378</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金鹰民安回报一年定期开放混合C</t>
+          <t>泰康策略优选灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>23.64</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>34.20</t>
+          <t>92.93</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0364</t>
+          <t>0.5981</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -4314,36 +2572,1480 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011695</t>
+          <t>010166</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+          <t>招商兴和优选1年持有期混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>15.52</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>95.49</t>
+          <t>90.61</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0303</t>
+          <t>0.5246</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5242</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3879</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3808</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3713</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3531</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3496</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3333</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3248</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3117</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001143</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商量化进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2887</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2875</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2510</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>630005</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商动态阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>70.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1569</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000609</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001106</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华商健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010293</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商量化优质精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002421</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新华增强债券A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000279</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商红利优选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>67.54</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>630016</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华商价值共享</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011372</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002422</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>新华增强债券C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4357,96 +4059,394 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1010</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0682</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3750</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2363</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>36</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.79</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>45</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.82</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.94</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000537-广宇发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/000537-广宇发展.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>1.34</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>6.79</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>13.82</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.94</v>
       </c>
     </row>
@@ -549,6 +566,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2096</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012919</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -870,7 +1361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2287,7 +2778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4053,7 +4544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000537-广宇发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/000537-广宇发展.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>1.73</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>1.34</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>6.79</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>13.82</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>45</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.94</v>
       </c>
     </row>
@@ -566,6 +583,784 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6430</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安智能生活混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2472</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安成长创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7565</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013621</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安智能生活混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4834</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4349</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2824</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2309</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014754</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014755</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>016099</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安成长创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014972</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1039,7 +1834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1361,7 +2156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2778,7 +3573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4544,7 +5339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
